--- a/AutomationONE/Environments/Environmentdata.xlsx
+++ b/AutomationONE/Environments/Environmentdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Saif\git\repository\DataDrivenTest\Environments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadsaif/git/repository/AutomationONE/Environments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C454CCD6-268E-44A0-9225-80A132328C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455BAA96-BEBA-104F-9A42-718D1FF7F9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENVIRONMENTS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>DB_USER</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>CB_PASSWORD</t>
-  </si>
-  <si>
-    <t>Test1</t>
   </si>
   <si>
     <t>jdbc:mysql://localhost:3306/projects</t>
@@ -493,36 +490,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="27.90625" customWidth="1"/>
-    <col min="3" max="3" width="35.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" customWidth="1"/>
-    <col min="10" max="10" width="16.90625" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="14.90625" customWidth="1"/>
-    <col min="13" max="13" width="11.7265625" customWidth="1"/>
-    <col min="14" max="14" width="12.7265625" customWidth="1"/>
-    <col min="15" max="15" width="16.6328125" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
@@ -543,34 +540,36 @@
         <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -588,34 +587,30 @@
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -630,7 +625,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -647,7 +642,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -664,27 +659,10 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{E9CD3E79-7EDA-4FDC-AB37-CF36E12C10EB}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{85BF90F3-6F5C-7948-B6B8-102565A0459F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
